--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>https://www.calculator.net/right-triangle-calculator.html</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/01.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/02.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/03.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/04.png</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,25 +555,33 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -833,6 +853,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>URL</t>
   </si>
@@ -155,6 +155,108 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/04.png</t>
+  </si>
+  <si>
+    <t>https://www.calculator.net/probability-calculator.html</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/05.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/06.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/07.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/08.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/09.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/37.png</t>
   </si>
 </sst>
 </file>
@@ -535,7 +637,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,205 +689,302 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -857,6 +1056,42 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13:A25" r:id="rId11" display="https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/10.png"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27:A39" r:id="rId13" display="https://raw.githubusercontent.com/indpDB/UC-WebApp-MathCalculators/main/10.png"/>
+    <hyperlink ref="A13" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="A17" r:id="rId18"/>
+    <hyperlink ref="A18" r:id="rId19"/>
+    <hyperlink ref="A19" r:id="rId20"/>
+    <hyperlink ref="A20" r:id="rId21"/>
+    <hyperlink ref="A21" r:id="rId22"/>
+    <hyperlink ref="A22" r:id="rId23"/>
+    <hyperlink ref="A23" r:id="rId24"/>
+    <hyperlink ref="A24" r:id="rId25"/>
+    <hyperlink ref="A25" r:id="rId26"/>
+    <hyperlink ref="A27" r:id="rId27"/>
+    <hyperlink ref="A28" r:id="rId28"/>
+    <hyperlink ref="A29" r:id="rId29"/>
+    <hyperlink ref="A30" r:id="rId30"/>
+    <hyperlink ref="A31" r:id="rId31"/>
+    <hyperlink ref="A32" r:id="rId32"/>
+    <hyperlink ref="A33" r:id="rId33"/>
+    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="A35" r:id="rId35"/>
+    <hyperlink ref="A36" r:id="rId36"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="A38" r:id="rId38"/>
+    <hyperlink ref="A39" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
